--- a/PYTHON_DARSLARI_KURS/Lesson_09_samandar/DATABASE.xlsx
+++ b/PYTHON_DARSLARI_KURS/Lesson_09_samandar/DATABASE.xlsx
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>80</v>
+        <v>270</v>
       </c>
       <c r="C2" t="n">
         <v>12000</v>
